--- a/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>33,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-27,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>-20,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>120,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-32,79%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 25,2</t>
+          <t>-58,82; 36,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 13,3</t>
+          <t>-44,51; 86,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 14,33</t>
+          <t>-89,02; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 17,45</t>
+          <t>-39,87; 41,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 119,44</t>
+          <t>-74,41; 213,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,33; 262,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 222,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 64,6</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>-1,76%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 20,36</t>
+          <t>-6,43; 25,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 12,98</t>
+          <t>-10,96; 13,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 19,62</t>
+          <t>-9,24; 14,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 18,16</t>
+          <t>-17,08; 17,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 55,08</t>
+          <t>-17,18; 119,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 151,69</t>
+          <t>-65,33; 262,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-68,28; 889,92</t>
+          <t>-48,98; 222,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 62,41</t>
+          <t>-40,54; 64,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-15,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,44</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,81</t>
+          <t>-12,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>120,32%</t>
+          <t>100,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-53,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>-19,16%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 36,21</t>
+          <t>-32,0; 4,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 86,77</t>
+          <t>-3,66; 22,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 0,0</t>
+          <t>-29,25; 2,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 41,83</t>
+          <t>-24,73; 11,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 213,29</t>
+          <t>-58,13; 12,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,81; 561,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,91; 34,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,23; 36,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,58</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-32,35%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,5%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-53,44%</t>
+          <t>99,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-8,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 4,56</t>
+          <t>-21,86; 20,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 22,06</t>
+          <t>-14,15; 12,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 2,43</t>
+          <t>-5,32; 19,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 11,02</t>
+          <t>-24,14; 18,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 12,0</t>
+          <t>-41,38; 55,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,81; 561,33</t>
+          <t>-62,88; 151,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-85,91; 34,12</t>
+          <t>-68,28; 889,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 36,56</t>
+          <t>-50,57; 62,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 36,21</t>
+          <t>-61,32; 37,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 86,77</t>
+          <t>-43,52; 78,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 213,29</t>
+          <t>-75,14; 206,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 24,77</t>
+          <t>-18,31; 25,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 18,35</t>
+          <t>-15,56; 17,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 15,06</t>
+          <t>-18,35; 13,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 46,05</t>
+          <t>-1,48; 44,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 121,08</t>
+          <t>-46,9; 119,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,92; 176,0</t>
+          <t>-69,11; 165,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 287,0</t>
+          <t>-2,83; 251,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 25,2</t>
+          <t>-8,29; 24,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 13,3</t>
+          <t>-11,17; 12,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 14,33</t>
+          <t>-8,82; 14,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 17,45</t>
+          <t>-16,45; 17,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 119,44</t>
+          <t>-22,86; 109,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,33; 262,09</t>
+          <t>-65,74; 220,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 222,87</t>
+          <t>-49,67; 210,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 64,6</t>
+          <t>-39,89; 62,48</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 4,56</t>
+          <t>-35,29; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 22,06</t>
+          <t>-3,78; 22,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 2,43</t>
+          <t>-29,59; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 11,02</t>
+          <t>-25,94; 9,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 12,0</t>
+          <t>-61,39; 12,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,81; 561,33</t>
+          <t>-32,08; 621,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,91; 34,12</t>
+          <t>-86,72; 24,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 36,56</t>
+          <t>-58,04; 34,73</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 20,36</t>
+          <t>-22,2; 18,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 12,98</t>
+          <t>-11,54; 14,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 19,62</t>
+          <t>-4,73; 20,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 18,16</t>
+          <t>-23,17; 15,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 55,08</t>
+          <t>-43,19; 49,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 151,69</t>
+          <t>-55,15; 172,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,28; 889,92</t>
+          <t>-66,95; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 62,41</t>
+          <t>-49,39; 54,13</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 8,41</t>
+          <t>-10,98; 7,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 10,68</t>
+          <t>-2,38; 10,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,45</t>
+          <t>-9,21; 5,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 7,36</t>
+          <t>-10,96; 8,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 23,04</t>
+          <t>-24,36; 20,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 101,71</t>
+          <t>-14,77; 101,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 55,0</t>
+          <t>-47,85; 47,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 24,87</t>
+          <t>-28,39; 28,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-61,32; 37,96</t>
+          <t>-58,18; 40,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 78,84</t>
+          <t>-39,61; 87,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 0,0</t>
+          <t>-85,19; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 41,83</t>
+          <t>-50,87; 32,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 206,67</t>
+          <t>-75,79; 219,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 25,76</t>
+          <t>-19,66; 25,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 17,93</t>
+          <t>-14,9; 19,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 13,44</t>
+          <t>-16,25; 16,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 44,25</t>
+          <t>-1,81; 44,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 119,48</t>
+          <t>-44,37; 111,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 165,22</t>
+          <t>-63,18; 213,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 251,36</t>
+          <t>-4,69; 286,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 24,24</t>
+          <t>-7,68; 24,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 12,53</t>
+          <t>-11,52; 12,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 14,25</t>
+          <t>-8,62; 13,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 17,57</t>
+          <t>-15,81; 17,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 109,06</t>
+          <t>-20,71; 115,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 220,56</t>
+          <t>-63,45; 235,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 210,3</t>
+          <t>-50,55; 195,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 62,48</t>
+          <t>-38,84; 63,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 4,07</t>
+          <t>-34,58; 5,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 22,6</t>
+          <t>-3,96; 21,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 1,49</t>
+          <t>-29,42; 1,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 9,12</t>
+          <t>-24,14; 8,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,39; 12,2</t>
+          <t>-63,19; 13,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 621,39</t>
+          <t>-41,76; 544,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,72; 24,88</t>
+          <t>-86,97; 19,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 34,73</t>
+          <t>-56,64; 34,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 18,05</t>
+          <t>-22,4; 20,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 14,92</t>
+          <t>-12,22; 13,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 20,03</t>
+          <t>-5,62; 18,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 15,2</t>
+          <t>-23,75; 15,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 49,79</t>
+          <t>-42,19; 56,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 172,65</t>
+          <t>-57,69; 162,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,95; —</t>
+          <t>-67,04; 939,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 54,13</t>
+          <t>-49,03; 55,59</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 7,01</t>
+          <t>-10,37; 7,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 10,98</t>
+          <t>-2,78; 11,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 5,07</t>
+          <t>-8,22; 5,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 8,71</t>
+          <t>-10,28; 8,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 20,62</t>
+          <t>-23,9; 22,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 101,13</t>
+          <t>-17,9; 112,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 47,8</t>
+          <t>-46,97; 52,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 28,94</t>
+          <t>-27,07; 27,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,44</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,81</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>120,32%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-44,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>55,34%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,18; 40,08</t>
+          <t>-18,3; 21,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 87,82</t>
+          <t>-9,79; 27,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-85,19; 0,0</t>
+          <t>-20,92; 7,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 32,63</t>
+          <t>-7,58; 34,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,79; 219,97</t>
+          <t>-39,85; 82,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,14; 263,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 214,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,63; 198,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,83%</t>
+          <t>-9,06%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 25,48</t>
+          <t>-6,43; 25,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 19,65</t>
+          <t>-10,96; 13,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 16,47</t>
+          <t>-9,24; 14,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 44,02</t>
+          <t>-20,73; 14,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 111,76</t>
+          <t>-17,18; 119,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,18; 213,04</t>
+          <t>-65,33; 262,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-48,98; 222,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 286,57</t>
+          <t>-50,16; 54,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>-15,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-12,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>100,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>-53,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-40,45%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 24,52</t>
+          <t>-32,0; 4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 12,7</t>
+          <t>-3,66; 22,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 13,69</t>
+          <t>-29,25; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 17,37</t>
+          <t>-36,38; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 115,55</t>
+          <t>-58,13; 12,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,45; 235,03</t>
+          <t>-38,81; 561,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,55; 195,91</t>
+          <t>-85,91; 34,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 63,56</t>
+          <t>-78,96; 8,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,58</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,35%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,5%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,44%</t>
+          <t>99,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-7,45%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 5,22</t>
+          <t>-21,86; 20,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 21,02</t>
+          <t>-14,15; 12,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 1,06</t>
+          <t>-5,32; 19,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 8,93</t>
+          <t>-23,72; 18,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 13,81</t>
+          <t>-41,38; 55,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 544,94</t>
+          <t>-62,88; 151,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,97; 19,47</t>
+          <t>-68,28; 889,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 34,09</t>
+          <t>-50,22; 68,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>-15,13%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 20,22</t>
+          <t>-11,39; 8,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 13,4</t>
+          <t>-3,18; 10,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 18,23</t>
+          <t>-8,63; 5,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 15,28</t>
+          <t>-21,37; 3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 56,05</t>
+          <t>-26,31; 23,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 162,29</t>
+          <t>-18,56; 101,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 939,05</t>
+          <t>-50,61; 55,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 55,59</t>
+          <t>-54,54; 12,26</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-3,85%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,1%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-9,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-2,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 7,78</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 11,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; 5,28</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 8,37</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 22,25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; 112,92</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-46,97; 52,31</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-27,07; 27,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
